--- a/DateBase/orders/Dang Nguyen_2025-8-5.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-8-5.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L32"/>
+  <dimension ref="A1:L40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -693,20 +693,87 @@
         <v>5</v>
       </c>
       <c r="C31" t="str">
-        <v>564_鸡冠花_Coxcomb_undefined_1bunch</v>
+        <v>572_乒乓菊白_undefined_undefined_1bunch</v>
       </c>
       <c r="F31" t="str">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32">
       <c r="C32" t="str">
-        <v>721_银扇干花_undefined_undefined_1bunch</v>
+        <v>526_大刺秦_Eryngium_undefined_1bunch</v>
+      </c>
+      <c r="F32" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="C33" t="str">
+        <v>83_布拉格_undefined_Gerbera L._10stems</v>
+      </c>
+      <c r="F33" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="C34" t="str">
+        <v>419_松虫草红_scabiosa watermelon_undefined_1bunch</v>
+      </c>
+      <c r="F34" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="C35" t="str">
+        <v>512_松虫草粉_scabiosa pink_undefined_1bunch</v>
+      </c>
+      <c r="F35" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="C36" t="str">
+        <v>780_贝壳草_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F36" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>6</v>
+      </c>
+      <c r="C37" t="str">
+        <v>564_鸡冠花_Coxcomb_undefined_1bunch</v>
+      </c>
+      <c r="F37" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="C38" t="str">
+        <v>564_鸡冠花_Coxcomb_undefined_1bunch</v>
+      </c>
+      <c r="F38" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="C39" t="str">
+        <v>564_鸡冠花_Coxcomb_undefined_1bunch</v>
+      </c>
+      <c r="F39" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="C40" t="str">
+        <v>637_干花小盼草红_undefined_undefined_1bunch</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L32"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L40"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -764,7 +831,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>014.51013155551515555105198201010856106651040150</v>
+        <v>014.51013155551515555105198201010856106651040105615855550</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-8-5.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-8-5.xlsx
@@ -770,6 +770,9 @@
       <c r="C40" t="str">
         <v>637_干花小盼草红_undefined_undefined_1bunch</v>
       </c>
+      <c r="F40" t="str">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -831,7 +834,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>014.51013155551515555105198201010856106651040105615855550</v>
+        <v>014.510131555515155551051982010108561066510401056158555510</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-8-5.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-8-5.xlsx
@@ -687,6 +687,9 @@
       <c r="C30" t="str">
         <v>572_乒乓菊白_undefined_undefined_1bunch</v>
       </c>
+      <c r="F30" t="str">
+        <v>10</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
@@ -834,7 +837,10 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>014.510131555515155551051982010108561066510401056158555510</v>
+        <v>014.5101315555151555510519820101085610665104101056158555510</v>
+      </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
       </c>
     </row>
   </sheetData>
